--- a/hw2.xlsx
+++ b/hw2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\KS_personal\USP_587\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A7527AE8-6073-43E3-896F-377E0EED8CC8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DCADA615-4FA9-42E2-A6A3-A089D79CD6E4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{8BD5A83D-BAB6-4F39-9576-F95B0DC9232B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t>Pr(&gt;|t|)</t>
   </si>
@@ -96,12 +96,33 @@
     <t xml:space="preserve">HH Vehicles 0  </t>
   </si>
   <si>
+    <t>(Intercept)</t>
+  </si>
+  <si>
     <t>&lt;2e-16</t>
   </si>
   <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>factor(hhwrk)2</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>factor(hhveh)1</t>
+  </si>
+  <si>
+    <t>factor(hhwrk)2:factor(hhveh)1</t>
+  </si>
+  <si>
     <t>* Factors</t>
   </si>
   <si>
+    <t>hhwrk 2: hhveh 1</t>
+  </si>
+  <si>
     <t>hhwrk 2+: hhveh 2+</t>
   </si>
   <si>
@@ -112,6 +133,81 @@
   </si>
   <si>
     <t xml:space="preserve">hhwrk 2+: hhveh 1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HH Workers 2  </t>
+  </si>
+  <si>
+    <t>HH Workers 3+</t>
+  </si>
+  <si>
+    <t>Model 1 HHSiz: HHWrk</t>
+  </si>
+  <si>
+    <t>Model 2 HHWrk: HHVeh</t>
+  </si>
+  <si>
+    <t>Model 3 HHrk: HHVeh</t>
+  </si>
+  <si>
+    <t>Household Size</t>
+  </si>
+  <si>
+    <t>4+</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Std.</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>factor(hhwrk)3</t>
+  </si>
+  <si>
+    <t>hhwrk 3: hhsiz 2</t>
+  </si>
+  <si>
+    <t>hhwrk 2: hhsiz 3</t>
+  </si>
+  <si>
+    <t>hhwrk 2: hhsiz 4</t>
+  </si>
+  <si>
+    <t>hhwrk 3: hhsiz 3</t>
+  </si>
+  <si>
+    <t>hhwrk 2: hhsiz 2</t>
+  </si>
+  <si>
+    <t>hhwrk 3: hhsiz 4</t>
+  </si>
+  <si>
+    <t>factor(hhwrk)3:factor(hhveh)1</t>
+  </si>
+  <si>
+    <t>hhwrk 3: hhveh 1</t>
+  </si>
+  <si>
+    <t>hhwrk3+: hhveh 2+</t>
+  </si>
+  <si>
+    <t>hhwrk2: hhveh 2+</t>
+  </si>
+  <si>
+    <t>* Factors hhwrk:hhsiz</t>
+  </si>
+  <si>
+    <t>* Factors hhwrk:hhveh</t>
   </si>
 </sst>
 </file>
@@ -300,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -376,12 +472,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37405712-9CD6-424B-B1F0-4AC648A3E300}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,43 +839,43 @@
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="45" t="s">
         <v>0</v>
       </c>
     </row>
@@ -837,13 +946,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
       <c r="I5" s="40"/>
       <c r="J5" s="38" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
@@ -863,7 +972,7 @@
         <v>19.46</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="15">
         <v>0.27160000000000001</v>
@@ -904,7 +1013,7 @@
         <v>42.79</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="15">
         <v>0.72970000000000002</v>
@@ -957,13 +1066,13 @@
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="38" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
       <c r="I9" s="40"/>
       <c r="J9" s="38" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
@@ -1029,7 +1138,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="20"/>
@@ -1046,7 +1155,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="20"/>
@@ -1079,7 +1188,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
@@ -1112,7 +1221,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
@@ -1137,7 +1246,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
@@ -1298,38 +1407,937 @@
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="45" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>0.50253999999999999</v>
+      </c>
+      <c r="C27">
+        <v>2.2929999999999999E-2</v>
+      </c>
+      <c r="D27">
+        <v>21.913</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27">
+        <v>0.27160000000000001</v>
+      </c>
+      <c r="G27">
+        <v>6.1809999999999997E-2</v>
+      </c>
+      <c r="H27">
+        <v>4.3940000000000001</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1.13E-5</v>
+      </c>
+      <c r="J27">
+        <v>0.27160000000000001</v>
+      </c>
+      <c r="K27">
+        <v>6.1620000000000001E-2</v>
+      </c>
+      <c r="L27">
+        <v>4.4080000000000004</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1.06E-5</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="48"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="50">
+        <v>1</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="23"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="50">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>2.1559999999999999E-2</v>
+      </c>
+      <c r="C30">
+        <v>3.5709999999999999E-2</v>
+      </c>
+      <c r="D30">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="E30">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="50">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>7.0580000000000004E-2</v>
+      </c>
+      <c r="C31">
+        <v>5.4620000000000002E-2</v>
+      </c>
+      <c r="D31">
+        <v>1.292</v>
+      </c>
+      <c r="E31">
+        <v>0.1963</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A32" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="51">
+        <v>0.10978</v>
+      </c>
+      <c r="C32">
+        <v>5.271E-2</v>
+      </c>
+      <c r="D32">
+        <v>2.0830000000000002</v>
+      </c>
+      <c r="E32">
+        <v>3.73E-2</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="18"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="21"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="18"/>
+      <c r="J34">
+        <v>0.45062000000000002</v>
+      </c>
+      <c r="K34">
+        <v>0.14449999999999999</v>
+      </c>
+      <c r="L34">
+        <v>3.1179999999999999</v>
+      </c>
+      <c r="M34">
+        <v>1.828E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>0.48039999999999999</v>
+      </c>
+      <c r="C35">
+        <v>5.5460000000000002E-2</v>
+      </c>
+      <c r="D35">
+        <v>8.6620000000000008</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35">
+        <v>0.45062000000000002</v>
+      </c>
+      <c r="G35">
+        <v>0.14496000000000001</v>
+      </c>
+      <c r="H35">
+        <v>3.109</v>
+      </c>
+      <c r="I35">
+        <v>1.89E-3</v>
+      </c>
+      <c r="J35">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="K35">
+        <v>0.78666999999999998</v>
+      </c>
+      <c r="L35">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="M35">
+        <v>0.35453000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>0.99243999999999999</v>
+      </c>
+      <c r="C36">
+        <v>7.22E-2</v>
+      </c>
+      <c r="D36">
+        <v>13.746</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="G36">
+        <v>0.78915999999999997</v>
+      </c>
+      <c r="H36">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="I36">
+        <v>0.35604999999999998</v>
+      </c>
+      <c r="J36">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="K36">
+        <v>0.78666999999999998</v>
+      </c>
+      <c r="L36">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="M36">
+        <v>0.35453000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="25"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="48"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39">
+        <v>0.27442</v>
+      </c>
+      <c r="G39">
+        <v>6.3880000000000006E-2</v>
+      </c>
+      <c r="H39">
+        <v>4.2960000000000003</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1.77E-5</v>
+      </c>
+      <c r="J39">
+        <v>0.23444999999999999</v>
+      </c>
+      <c r="K39">
+        <v>6.5790000000000001E-2</v>
+      </c>
+      <c r="L39">
+        <v>3.5630000000000002</v>
+      </c>
+      <c r="M39">
+        <v>3.6900000000000002E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="25"/>
+      <c r="J40">
+        <v>0.31220999999999999</v>
+      </c>
+      <c r="K40">
+        <v>6.5570000000000003E-2</v>
+      </c>
+      <c r="L40">
+        <v>4.7610000000000001</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1.9700000000000002E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="25"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="51">
+        <v>6.4420000000000005E-2</v>
+      </c>
+      <c r="C42">
+        <v>6.5659999999999996E-2</v>
+      </c>
+      <c r="D42">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="E42">
+        <v>0.3266</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="18"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="51"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="18"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="51">
+        <v>1.6150000000000001E-2</v>
+      </c>
+      <c r="C44">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="D44">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E44">
+        <v>0.8448</v>
+      </c>
+      <c r="F44" s="15"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="18"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="51">
+        <v>1.3050000000000001E-2</v>
+      </c>
+      <c r="C45">
+        <v>0.10761</v>
+      </c>
+      <c r="D45">
+        <v>0.121</v>
+      </c>
+      <c r="E45">
+        <v>0.90349999999999997</v>
+      </c>
+      <c r="F45" s="26"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="29"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="51"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="18"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="51"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="18"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="51"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49">
+        <v>8.4680000000000005E-2</v>
+      </c>
+      <c r="G49">
+        <v>0.14671000000000001</v>
+      </c>
+      <c r="H49">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0.56384999999999996</v>
+      </c>
+      <c r="J49">
+        <v>-7.4950000000000003E-2</v>
+      </c>
+      <c r="K49">
+        <v>0.15187999999999999</v>
+      </c>
+      <c r="L49">
+        <v>-0.49399999999999999</v>
+      </c>
+      <c r="M49">
+        <v>0.62167799999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="J50">
+        <v>0.11038000000000001</v>
+      </c>
+      <c r="K50">
+        <v>0.80037000000000003</v>
+      </c>
+      <c r="L50">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="M50">
+        <v>0.89031899999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51">
+        <v>0.32068999999999998</v>
+      </c>
+      <c r="G51">
+        <v>0.79039000000000004</v>
+      </c>
+      <c r="H51">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="I51">
+        <v>0.68496000000000001</v>
+      </c>
+      <c r="J51">
+        <v>8.2049999999999998E-2</v>
+      </c>
+      <c r="K51">
+        <v>0.14723</v>
+      </c>
+      <c r="L51">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="M51">
+        <v>0.577345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="29"/>
+      <c r="J52">
+        <v>0.30431000000000002</v>
+      </c>
+      <c r="K52">
+        <v>0.78813999999999995</v>
+      </c>
+      <c r="L52">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="M52">
+        <v>0.69942700000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="30"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="32"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="19">
+        <v>5430</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="19">
+        <v>5430</v>
+      </c>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="19">
+        <v>5430</v>
+      </c>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="21"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="19">
+        <v>3370</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="33">
+        <v>3357.2</v>
+      </c>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="19">
+        <v>3334.2</v>
+      </c>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="21"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="34">
+        <v>3968.9</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="34">
+        <v>3968.9</v>
+      </c>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="19">
+        <v>3968.9</v>
+      </c>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="21"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="19">
+        <v>0.15090000000000001</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="34">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="19">
+        <v>0.15989999999999999</v>
+      </c>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="21"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="35">
+        <v>0.1497</v>
+      </c>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="36">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="35">
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="37"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61">
+        <v>0.27160000000000001</v>
+      </c>
+      <c r="C61">
+        <v>6.1809999999999997E-2</v>
+      </c>
+      <c r="D61">
+        <v>4.3940000000000001</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1.13E-5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64">
+        <v>0.27442</v>
+      </c>
+      <c r="C64">
+        <v>6.3880000000000006E-2</v>
+      </c>
+      <c r="D64">
+        <v>4.2960000000000003</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1.77E-5</v>
+      </c>
+      <c r="F64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="J9:M9"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
